--- a/Homework/Homework 6/tcs94_ECHE313_HW6.xlsx
+++ b/Homework/Homework 6/tcs94_ECHE313_HW6.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f4dc847ec8b5479/Documents/CWRU/Spring 2025/ECHE313/Homework/Homework 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{17C9272D-6EFC-484F-9AA9-77A3EA5F8100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0244B1C-8E7A-484F-8F6A-F2659986DB03}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="8_{17C9272D-6EFC-484F-9AA9-77A3EA5F8100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E1DC633-2A98-450A-8EFF-B5A495B8EA46}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15285" xr2:uid="{9E52DC9A-1D8A-49BB-9C67-6BB0280E8A77}"/>
+    <workbookView xWindow="2925" yWindow="4305" windowWidth="28800" windowHeight="15285" activeTab="1" xr2:uid="{9E52DC9A-1D8A-49BB-9C67-6BB0280E8A77}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Question 3" sheetId="1" r:id="rId1"/>
+    <sheet name="Question 4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,13 +36,77 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
-    <t>Temperature ©</t>
+    <t>Density</t>
   </si>
   <si>
-    <t>Density</t>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>Transposed for Minitab</t>
+  </si>
+  <si>
+    <t>SS_T</t>
+  </si>
+  <si>
+    <t>SS_Treatments</t>
+  </si>
+  <si>
+    <t>SS_E</t>
+  </si>
+  <si>
+    <t>F Statistic</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>y_ij - y^bar_dotdot</t>
+  </si>
+  <si>
+    <t>Squared</t>
+  </si>
+  <si>
+    <t>One Column Residuals for Minitab</t>
+  </si>
+  <si>
+    <t>Orifice Diameter</t>
+  </si>
+  <si>
+    <t>Radon Released</t>
+  </si>
+  <si>
+    <t>Residuals vs Factor</t>
   </si>
 </sst>
 </file>
@@ -84,12 +149,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,6 +174,2480 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Residuals vs. Factor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Question 4'!$G$11:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Question 4'!$H$11:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3625-479E-A54E-5A8E8FF1673F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468715040"/>
+        <c:axId val="468716000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468715040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468716000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468716000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468715040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average % Randon Released by Orifice Diameter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>A</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-E64F-461A-82AF-875081E9EAAA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>B</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-E64F-461A-82AF-875081E9EAAA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>B,</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> C</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-E64F-461A-82AF-875081E9EAAA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>C</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E64F-461A-82AF-875081E9EAAA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>D</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E64F-461A-82AF-875081E9EAAA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>D</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E64F-461A-82AF-875081E9EAAA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Question 4'!$C$22:$C$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.06</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.31</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.8260000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.56</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.75</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Question 4'!$C$22:$C$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.06</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.31</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.8260000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.56</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.75</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Question 4'!$A$22:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 4'!$B$22:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>82.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E64F-461A-82AF-875081E9EAAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1090778160"/>
+        <c:axId val="1090776720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1090778160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Orifice Diameter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1090776720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1090776720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean % Radon Released</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1090778160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CEADB9-BDF1-3B4E-8B67-65BBC177CD8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B4C72B-5FD3-3692-5BD4-9EF028566051}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4562475" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9509DA-BAB9-DD82-3E91-1DEFD5DC9C74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="7505700"/>
+          <a:ext cx="4562475" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>All data are represented by the average ± standard error. ANOVA was performed to confirm statistical significance of Orifice Diameter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0"/>
+            <a:t> differnce on the mean radon percentage released</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>, followed by Fischer's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0"/>
+            <a:t> LSD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> post hoc test to determine differences between treatment means using </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR"/>
+            <a:t>α=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>0.05. Bars that do not share a letter within a graph are statistically different.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00208</cdr:x>
+      <cdr:y>0.5625</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB04BF1-DAE6-59DD-8CD4-553F832BAD51}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="14288" y="2671763"/>
+          <a:ext cx="4562475" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,31 +2967,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF6953C-200E-4CE3-9710-FD917AD5965E}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>500</v>
       </c>
@@ -470,8 +3031,34 @@
       <c r="G2" s="1">
         <v>41.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>SUM(B2:G2)</f>
+        <v>250.2</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(B2:G2)</f>
+        <v>41.699999999999996</v>
+      </c>
+      <c r="M2" cm="1">
+        <f t="array" ref="M2:P2">TRANSPOSE(A2:A5)</f>
+        <v>500</v>
+      </c>
+      <c r="N2">
+        <v>525</v>
+      </c>
+      <c r="O2">
+        <v>550</v>
+      </c>
+      <c r="P2">
+        <v>575</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>525</v>
       </c>
@@ -493,8 +3080,37 @@
       <c r="G3" s="1">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="0">SUM(B3:G3)</f>
+        <v>249.5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="1">AVERAGE(B3:G3)</f>
+        <v>41.583333333333336</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3:M8">TRANSPOSE($B2:$G2)</f>
+        <v>41.8</v>
+      </c>
+      <c r="N3" cm="1">
+        <f t="array" ref="N3:N8">TRANSPOSE($B3:$G3)</f>
+        <v>41.4</v>
+      </c>
+      <c r="O3" cm="1">
+        <f t="array" ref="O3:O8">TRANSPOSE($B4:$G4)</f>
+        <v>41.2</v>
+      </c>
+      <c r="P3" cm="1">
+        <f t="array" ref="P3:P8">TRANSPOSE($B5:$G5)</f>
+        <v>41</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>550</v>
       </c>
@@ -516,8 +3132,33 @@
       <c r="G4" s="1">
         <v>41.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>248.70000000000005</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>41.45000000000001</v>
+      </c>
+      <c r="M4">
+        <v>41.9</v>
+      </c>
+      <c r="N4">
+        <v>41.3</v>
+      </c>
+      <c r="O4">
+        <v>41</v>
+      </c>
+      <c r="P4">
+        <v>40.6</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>575</v>
       </c>
@@ -539,11 +3180,1462 @@
       <c r="G5" s="1">
         <v>41.5</v>
       </c>
+      <c r="H5">
+        <f>SUM(B5:G5)</f>
+        <v>248</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>41.333333333333336</v>
+      </c>
+      <c r="M5">
+        <v>41.7</v>
+      </c>
+      <c r="N5">
+        <v>41.7</v>
+      </c>
+      <c r="O5">
+        <v>41.6</v>
+      </c>
+      <c r="P5">
+        <v>41.8</v>
+      </c>
+      <c r="R5" s="2">
+        <v>-9.9999999999994316E-2</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f>SUM(H2:H5)</f>
+        <v>996.40000000000009</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE(I2:I5)</f>
+        <v>41.516666666666673</v>
+      </c>
+      <c r="M6">
+        <v>41.6</v>
+      </c>
+      <c r="N6">
+        <v>41.6</v>
+      </c>
+      <c r="O6">
+        <v>41.9</v>
+      </c>
+      <c r="P6">
+        <v>41.2</v>
+      </c>
+      <c r="R6" s="2">
+        <v>-0.19999999999999574</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>41.5</v>
+      </c>
+      <c r="N7">
+        <v>41.7</v>
+      </c>
+      <c r="O7">
+        <v>41.7</v>
+      </c>
+      <c r="P7">
+        <v>41.9</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="M8">
+        <v>41.7</v>
+      </c>
+      <c r="N8">
+        <v>41.8</v>
+      </c>
+      <c r="O8">
+        <v>41.3</v>
+      </c>
+      <c r="P8">
+        <v>41.5</v>
+      </c>
+      <c r="R8" s="2">
+        <v>-0.18333333333333712</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>B2-$I$6</f>
+        <v>0.28333333333332433</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:G9" si="2">C2-$I$6</f>
+        <v>0.38333333333332575</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.18333333333333002</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>8.3333333333328596E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-1.6666666666672825E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.18333333333333002</v>
+      </c>
+      <c r="R9" s="2">
+        <v>-0.28333333333333854</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" ref="B10:G10" si="3">B3-$I$6</f>
+        <v>-0.11666666666667425</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>-0.21666666666667567</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>0.18333333333333002</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>8.3333333333328596E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.18333333333333002</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0.28333333333332433</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.11666666666666714</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" ref="B11:G11" si="4">B4-$I$6</f>
+        <v>-0.31666666666666998</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>-0.51666666666667282</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>8.3333333333328596E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>0.38333333333332575</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>0.18333333333333002</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>-0.21666666666667567</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1.6666666666665719E-2</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" ref="B12:G12" si="5">B5-$I$6</f>
+        <v>-0.51666666666667282</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="5"/>
+        <v>-0.9166666666666714</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="5"/>
+        <v>0.28333333333332433</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="5"/>
+        <v>-0.31666666666666998</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>0.38333333333332575</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>-1.6666666666672825E-2</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.11666666666666714</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="R13" s="2">
+        <v>0.21666666666666146</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>B9^2</f>
+        <v>8.0277777777772674E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:G14" si="6">C9^2</f>
+        <v>0.14694444444443863</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="6"/>
+        <v>3.3611111111109898E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>6.9444444444436548E-3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="6"/>
+        <v>2.7777777777798307E-4</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>3.3611111111109898E-2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="2">
+        <v>-0.25000000000000711</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" ref="B15:G15" si="7">B10^2</f>
+        <v>1.361111111111288E-2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="7"/>
+        <v>4.6944444444448341E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="7"/>
+        <v>3.3611111111109898E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="7"/>
+        <v>6.9444444444436548E-3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="7"/>
+        <v>3.3611111111109898E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="7"/>
+        <v>8.0277777777772674E-2</v>
+      </c>
+      <c r="I15">
+        <f>SUM(B14:G17)</f>
+        <v>2.5533333333333275</v>
+      </c>
+      <c r="K15">
+        <f>COUNT(B9:G9)*SUM(D20:D23)</f>
+        <v>0.45666666666664596</v>
+      </c>
+      <c r="M15">
+        <f>I15-K15</f>
+        <v>2.0966666666666813</v>
+      </c>
+      <c r="O15">
+        <f>(K15/(COUNT(A2:A5)-1))/(M15/(COUNT(A2:A5)*(COUNT(B2:G2)-1)))</f>
+        <v>1.4520402755696113</v>
+      </c>
+      <c r="R15" s="2">
+        <v>-0.45000000000000995</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" ref="B16:G16" si="8">B11^2</f>
+        <v>0.10027777777777988</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="8"/>
+        <v>0.26694444444445081</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="8"/>
+        <v>6.9444444444436548E-3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="8"/>
+        <v>0.14694444444443863</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="8"/>
+        <v>3.3611111111109898E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="8"/>
+        <v>4.6944444444448341E-2</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.14999999999999147</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" ref="B17:G17" si="9">B12^2</f>
+        <v>0.26694444444445081</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="9"/>
+        <v>0.84027777777778645</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="9"/>
+        <v>8.0277777777772674E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="9"/>
+        <v>0.10027777777777988</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="9"/>
+        <v>0.14694444444443863</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="9"/>
+        <v>2.7777777777798307E-4</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.44999999999998863</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R18" s="2">
+        <v>0.24999999999999289</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="R19" s="2">
+        <v>-0.15000000000001279</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>I2-$I$6</f>
+        <v>0.18333333333332291</v>
+      </c>
+      <c r="D20">
+        <f>B20^2</f>
+        <v>3.3611111111107289E-2</v>
+      </c>
+      <c r="R20" s="2">
+        <v>-0.3333333333333357</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" ref="B21:B22" si="10">I3-$I$6</f>
+        <v>6.6666666666662877E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D23" si="11">B21^2</f>
+        <v>4.4444444444439388E-3</v>
+      </c>
+      <c r="R21" s="2">
+        <v>-0.73333333333333428</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="10"/>
+        <v>-6.6666666666662877E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="11"/>
+        <v>4.4444444444439388E-3</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.46666666666666146</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>I5-$I$6</f>
+        <v>-0.18333333333333712</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="11"/>
+        <v>3.36111111111125E-2</v>
+      </c>
+      <c r="R23" s="2">
+        <v>-0.13333333333333286</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R24" s="2">
+        <v>0.56666666666666288</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="R25" s="2">
+        <v>0.1666666666666643</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>B2-$I$2</f>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:G26" si="12">C2-$I$2</f>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999994316E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="12"/>
+        <v>-0.19999999999999574</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>B3-$I$3</f>
+        <v>-0.18333333333333712</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:G27" si="13">C3-$I$3</f>
+        <v>-0.28333333333333854</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="13"/>
+        <v>0.11666666666666714</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="13"/>
+        <v>1.6666666666665719E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="13"/>
+        <v>0.11666666666666714</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="13"/>
+        <v>0.21666666666666146</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>B4-$I$4</f>
+        <v>-0.25000000000000711</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:G28" si="14">C4-$I$4</f>
+        <v>-0.45000000000000995</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="14"/>
+        <v>0.14999999999999147</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="14"/>
+        <v>0.44999999999998863</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="14"/>
+        <v>0.24999999999999289</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="14"/>
+        <v>-0.15000000000001279</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>B5-$I$5</f>
+        <v>-0.3333333333333357</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:G29" si="15">C5-$I$5</f>
+        <v>-0.73333333333333428</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="15"/>
+        <v>0.46666666666666146</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="15"/>
+        <v>-0.13333333333333286</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="15"/>
+        <v>0.56666666666666288</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="15"/>
+        <v>0.1666666666666643</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="32">
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E4950E-930C-4AA6-8BD6-20B9D3AEDA5D}">
+  <dimension ref="A1:T34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="B2" s="1">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1">
+        <v>83</v>
+      </c>
+      <c r="D2" s="1">
+        <v>83</v>
+      </c>
+      <c r="E2" s="1">
+        <v>85</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B2:E2)</f>
+        <v>331</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:E2)</f>
+        <v>82.75</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" ref="K2:P2">TRANSPOSE(A2:A7)</f>
+        <v>0.37</v>
+      </c>
+      <c r="L2">
+        <v>0.51</v>
+      </c>
+      <c r="M2">
+        <v>0.71</v>
+      </c>
+      <c r="N2">
+        <v>1.02</v>
+      </c>
+      <c r="O2">
+        <v>1.4</v>
+      </c>
+      <c r="P2">
+        <v>1.99</v>
+      </c>
+      <c r="R2" s="2">
+        <v>-2.75</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="B3" s="1">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1">
+        <v>79</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="0">SUM(B3:E3)</f>
+        <v>308</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="1">AVERAGE(B3:E3)</f>
+        <v>77</v>
+      </c>
+      <c r="K3" cm="1">
+        <f t="array" ref="K3:K6">TRANSPOSE(B2:E2)</f>
+        <v>80</v>
+      </c>
+      <c r="L3" cm="1">
+        <f t="array" ref="L3:L6">TRANSPOSE(B3:E3)</f>
+        <v>75</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3:M6">TRANSPOSE(B4:E4)</f>
+        <v>74</v>
+      </c>
+      <c r="N3" cm="1">
+        <f t="array" ref="N3:N6">TRANSPOSE(B5:E5)</f>
+        <v>67</v>
+      </c>
+      <c r="O3" cm="1">
+        <f t="array" ref="O3:O6">TRANSPOSE(B6:E6)</f>
+        <v>62</v>
+      </c>
+      <c r="P3" cm="1">
+        <f t="array" ref="P3:P6">TRANSPOSE(B7:E7)</f>
+        <v>60</v>
+      </c>
+      <c r="R3" s="2">
+        <v>-2</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="B4" s="1">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="K4">
+        <v>83</v>
+      </c>
+      <c r="L4">
+        <v>75</v>
+      </c>
+      <c r="M4">
+        <v>73</v>
+      </c>
+      <c r="N4">
+        <v>72</v>
+      </c>
+      <c r="O4">
+        <v>62</v>
+      </c>
+      <c r="P4">
+        <v>61</v>
+      </c>
+      <c r="R4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B5" s="1">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1">
+        <v>74</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>71.75</v>
+      </c>
+      <c r="K5">
+        <v>83</v>
+      </c>
+      <c r="L5">
+        <v>79</v>
+      </c>
+      <c r="M5">
+        <v>76</v>
+      </c>
+      <c r="N5">
+        <v>74</v>
+      </c>
+      <c r="O5">
+        <v>67</v>
+      </c>
+      <c r="P5">
+        <v>64</v>
+      </c>
+      <c r="R5" s="2">
+        <v>-4.75</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1">
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="K6">
+        <v>85</v>
+      </c>
+      <c r="L6">
+        <v>79</v>
+      </c>
+      <c r="M6">
+        <v>77</v>
+      </c>
+      <c r="N6">
+        <v>74</v>
+      </c>
+      <c r="O6">
+        <v>69</v>
+      </c>
+      <c r="P6">
+        <v>66</v>
+      </c>
+      <c r="R6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1">
+        <v>66</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>62.75</v>
+      </c>
+      <c r="R7" s="2">
+        <v>-2.75</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f>SUM(F2:F7)</f>
+        <v>1737</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(G2:G7)</f>
+        <v>72.375</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R9" s="2">
+        <v>-2</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="R10" s="2">
+        <v>-2</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>B2-$G$2</f>
+        <v>-2.75</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:F11" si="2">C2-$G$2</f>
+        <v>0.25</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11:H14">TRANSPOSE(B11:E11)</f>
+        <v>-2.75</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>B3-$G$3</f>
+        <v>-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:F12" si="3">C3-$G$3</f>
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="H12">
+        <v>0.25</v>
+      </c>
+      <c r="R12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>B4-$G$4</f>
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:F13" si="4">C4-$G$4</f>
+        <v>-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+      <c r="R13" s="2">
+        <v>-1.75</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>B5-$G$5</f>
+        <v>-4.75</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="5">C5-$G$5</f>
+        <v>0.25</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="H14">
+        <v>2.25</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B6-$G$6</f>
+        <v>-3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:D15" si="6">C6-$G$6</f>
+        <v>-3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f>E6-$G$6</f>
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15:H18">TRANSPOSE(B12:E12)</f>
+        <v>-2</v>
+      </c>
+      <c r="R15" s="2">
+        <v>2</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>B7-$G$7</f>
+        <v>-2.75</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:E16" si="7">C7-$G$7</f>
+        <v>-1.75</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="7"/>
+        <v>3.25</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H16">
+        <v>-2</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2">
+        <v>2</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19:H22">TRANSPOSE(B13:E13)</f>
+        <v>-1</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="H20">
+        <v>-2</v>
+      </c>
+      <c r="R20" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2">
+        <v>2</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="B22" s="1">
+        <v>82.75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2">
+        <v>2</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="B23" s="1">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="H23" cm="1">
+        <f t="array" ref="H23:H26">TRANSPOSE(B14:E14)</f>
+        <v>-4.75</v>
+      </c>
+      <c r="R23" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="B24" s="1">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="H24">
+        <v>0.25</v>
+      </c>
+      <c r="R24" s="2">
+        <v>4</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B25" s="1">
+        <v>71.75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="H25">
+        <v>2.25</v>
+      </c>
+      <c r="R25" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="H26">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="B27" s="1">
+        <v>62.75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="H27" cm="1">
+        <f t="array" ref="H27:H30">TRANSPOSE(B15:E15)</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="G28" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="H28">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="H31" cm="1">
+        <f t="array" ref="H31:H34">TRANSPOSE(B16:E16)</f>
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="H32">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="H33">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="H34">
+        <v>3.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="R6:T6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>